--- a/trend_results/Lakes/LakeHeaton_d2c473879f.xlsx
+++ b/trend_results/Lakes/LakeHeaton_d2c473879f.xlsx
@@ -115,28 +115,28 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -612,37 +612,37 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.208874220075783</v>
+        <v>0.588039702414468</v>
       </c>
       <c r="G2">
-        <v>0.0357142857142857</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H2">
-        <v>0.928571428571429</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>2.81388584067177</v>
+        <v>-0.361889596602972</v>
       </c>
       <c r="L2">
-        <v>-2.87438293296566</v>
+        <v>-5.35715486146986</v>
       </c>
       <c r="M2">
-        <v>7.23552133497396</v>
+        <v>4.02578382681564</v>
       </c>
       <c r="N2">
-        <v>15.2101937333609</v>
+        <v>-2.41259731068648</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q2">
         <v>1795129.32506</v>
@@ -683,37 +683,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.673682921329306</v>
+        <v>0.370228327479224</v>
       </c>
       <c r="G3">
-        <v>0.357142857142857</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="H3">
-        <v>0.392857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-4.01480378197173</v>
+        <v>-2.76726507991845</v>
       </c>
       <c r="M3">
-        <v>0.472005894590438</v>
+        <v>3.27421398280564</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1795129.32506</v>
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0.748481493461243</v>
+        <v>0.650755261334884</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -766,25 +766,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0930309808175169</v>
+        <v>0.0968937888424586</v>
       </c>
       <c r="K4">
-        <v>-0.0104652378060117</v>
+        <v>-0.0056484191161694</v>
       </c>
       <c r="L4">
-        <v>-0.06753460555816169</v>
+        <v>-0.0425312867891531</v>
       </c>
       <c r="M4">
-        <v>0.0199400925936479</v>
+        <v>0.0261236329410412</v>
       </c>
       <c r="N4">
-        <v>-11.2491964655726</v>
+        <v>-5.82949555760826</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>1795129.32506</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>0.914286317104243</v>
+        <v>0.878156134247729</v>
       </c>
       <c r="G5">
-        <v>0.357142857142857</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="H5">
-        <v>0.607142857142857</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -840,22 +840,22 @@
         <v>0.0435</v>
       </c>
       <c r="K5">
-        <v>-0.0074954348099328</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0665961818533603</v>
+        <v>-0.0452249604942845</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-17.2308846205354</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1795129.32506</v>
@@ -893,40 +893,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>0.0091900782608149</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.916666666666667</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.83</v>
+        <v>7.99</v>
       </c>
       <c r="K6">
-        <v>-0.271819833852544</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.550928717271551</v>
+        <v>-0.155832159239504</v>
       </c>
       <c r="M6">
-        <v>-0.0517676975287026</v>
+        <v>0.190935768931603</v>
       </c>
       <c r="N6">
-        <v>-3.47151767372342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1795129.32506</v>
@@ -964,37 +964,37 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.823440491130556</v>
+        <v>0.887983078373327</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="K7">
-        <v>-0.107459999449218</v>
+        <v>-0.137733938547486</v>
       </c>
       <c r="L7">
-        <v>-0.311746489005763</v>
+        <v>-0.304259806467168</v>
       </c>
       <c r="M7">
-        <v>0.0604260314839759</v>
+        <v>0.0446317640126018</v>
       </c>
       <c r="N7">
-        <v>-6.28421049410631</v>
+        <v>-8.00778712485384</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1795129.32506</v>
@@ -1035,37 +1035,37 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.0393456680441651</v>
+        <v>0.09854819261968099</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3085</v>
+        <v>0.316</v>
       </c>
       <c r="K8">
-        <v>0.0406196817805542</v>
+        <v>0.0284980494148244</v>
       </c>
       <c r="L8">
-        <v>0.0027032024214916</v>
+        <v>-0.0264795712067023</v>
       </c>
       <c r="M8">
-        <v>0.0819508033693469</v>
+        <v>0.0883859064521985</v>
       </c>
       <c r="N8">
-        <v>13.1668336403741</v>
+        <v>9.018370067982421</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1795129.32506</v>
@@ -1103,40 +1103,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.312285838757436</v>
+        <v>0.599995132836703</v>
       </c>
       <c r="G9">
-        <v>0.06666666666666669</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="H9">
-        <v>0.844444444444444</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.350718752709616</v>
+        <v>-0.23923665227276</v>
       </c>
       <c r="L9">
-        <v>-2.39908737882886</v>
+        <v>-3.46748500685424</v>
       </c>
       <c r="M9">
-        <v>2.5940442854839</v>
+        <v>0.815242414438252</v>
       </c>
       <c r="N9">
-        <v>1.34891827965237</v>
+        <v>-1.1961832613638</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q9">
         <v>1795129.32506</v>
@@ -1177,37 +1177,37 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.219867794473866</v>
       </c>
       <c r="G10">
-        <v>0.261904761904762</v>
+        <v>0.24</v>
       </c>
       <c r="H10">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.247471518891037</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.54973273112765</v>
+        <v>1.22237708098733</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>1795129.32506</v>
@@ -1248,13 +1248,13 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>0.443233782226658</v>
+        <v>0.601340223738668</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.415094339622642</v>
       </c>
       <c r="H11">
-        <v>0.555555555555556</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.0009267554334392</v>
       </c>
       <c r="M11">
-        <v>0.0007667238631078</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q11">
         <v>1795129.32506</v>
@@ -1319,37 +1319,37 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.655831717582408</v>
+        <v>0.78530090292357</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.955555555555556</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
-        <v>-0.0256448557124423</v>
+        <v>-0.0330892156326492</v>
       </c>
       <c r="L12">
-        <v>-0.0937325020372507</v>
+        <v>-0.0924772442184925</v>
       </c>
       <c r="M12">
-        <v>0.0511595214759817</v>
+        <v>0.0311521208591165</v>
       </c>
       <c r="N12">
-        <v>-1.36408806981076</v>
+        <v>-1.8382897573694</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q12">
         <v>1795129.32506</v>
@@ -1390,13 +1390,13 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.0647268661186618</v>
+        <v>0.0519496411572952</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1405,22 +1405,22 @@
         <v>0.282</v>
       </c>
       <c r="K13">
-        <v>0.0154104424538981</v>
+        <v>0.0114677103673078</v>
       </c>
       <c r="L13">
-        <v>-0.00281914333096</v>
+        <v>-0.0009993914156746001</v>
       </c>
       <c r="M13">
-        <v>0.0323479597413187</v>
+        <v>0.0297261243746047</v>
       </c>
       <c r="N13">
-        <v>5.46469590563762</v>
+        <v>4.06656396003822</v>
       </c>
       <c r="O13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13">
         <v>1795129.32506</v>

--- a/trend_results/Lakes/LakeHeaton_d2c473879f.xlsx
+++ b/trend_results/Lakes/LakeHeaton_d2c473879f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Heaton</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>West_5</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +615,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.588039702414468</v>
+        <v>0.506182613368019</v>
       </c>
       <c r="G2">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.882352941176471</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>0.0314</v>
       </c>
       <c r="K2">
-        <v>-0.361889596602972</v>
+        <v>-2.65443313953488E-05</v>
       </c>
       <c r="L2">
-        <v>-5.35715486146986</v>
+        <v>-0.0080062673396604</v>
       </c>
       <c r="M2">
-        <v>4.02578382681564</v>
+        <v>0.0302053920575172</v>
       </c>
       <c r="N2">
-        <v>-2.41259731068648</v>
+        <v>-0.08453608724633389</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>1795129.32506</v>
@@ -651,19 +657,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -683,37 +689,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.370228327479224</v>
+        <v>0.588039702414468</v>
       </c>
       <c r="G3">
-        <v>0.264705882352941</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.361889596602972</v>
       </c>
       <c r="L3">
-        <v>-2.76726507991845</v>
+        <v>-5.35715486146986</v>
       </c>
       <c r="M3">
-        <v>3.27421398280564</v>
+        <v>4.02578382681564</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-2.41259731068648</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>1795129.32506</v>
@@ -722,19 +728,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -751,40 +757,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.650755261334884</v>
+        <v>0.370228327479224</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0968937888424586</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-0.0056484191161694</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0425312867891531</v>
+        <v>-2.76726507991845</v>
       </c>
       <c r="M4">
-        <v>0.0261236329410412</v>
+        <v>3.27421398280564</v>
       </c>
       <c r="N4">
-        <v>-5.82949555760826</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1795129.32506</v>
@@ -793,19 +799,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -822,37 +828,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.878156134247729</v>
+        <v>0.650755261334884</v>
       </c>
       <c r="G5">
-        <v>0.411764705882353</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.588235294117647</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0435</v>
+        <v>0.0968937888424586</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0056484191161694</v>
       </c>
       <c r="L5">
-        <v>-0.0452249604942845</v>
+        <v>-0.0425312867891531</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0261236329410412</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-5.82949555760826</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
         <v>37</v>
@@ -864,19 +870,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -896,34 +902,34 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.878156134247729</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="H6">
-        <v>0.9090909090909089</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.99</v>
+        <v>0.0435</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.155832159239504</v>
+        <v>-0.0452249604942845</v>
       </c>
       <c r="M6">
-        <v>0.190935768931603</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -935,16 +941,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,40 +970,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>0.887983078373327</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9411764705882349</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.72</v>
+        <v>7.99</v>
       </c>
       <c r="K7">
-        <v>-0.137733938547486</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.304259806467168</v>
+        <v>-0.155832159239504</v>
       </c>
       <c r="M7">
-        <v>0.0446317640126018</v>
+        <v>0.190935768931603</v>
       </c>
       <c r="N7">
-        <v>-8.00778712485384</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1795129.32506</v>
@@ -1003,19 +1012,16 @@
         <v>5557785.22125</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,40 +1038,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.09854819261968099</v>
+        <v>0.887983078373327</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.970588235294118</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.316</v>
+        <v>1.72</v>
       </c>
       <c r="K8">
-        <v>0.0284980494148244</v>
+        <v>-0.137733938547486</v>
       </c>
       <c r="L8">
-        <v>-0.0264795712067023</v>
+        <v>-0.304259806467168</v>
       </c>
       <c r="M8">
-        <v>0.0883859064521985</v>
+        <v>0.0446317640126018</v>
       </c>
       <c r="N8">
-        <v>9.018370067982421</v>
+        <v>-8.00778712485384</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1795129.32506</v>
@@ -1074,19 +1080,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1094,10 +1100,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1106,37 +1112,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.599995132836703</v>
+        <v>0.09854819261968099</v>
       </c>
       <c r="G9">
-        <v>0.0754716981132075</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.792452830188679</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>0.316</v>
       </c>
       <c r="K9">
-        <v>-0.23923665227276</v>
+        <v>0.0284980494148244</v>
       </c>
       <c r="L9">
-        <v>-3.46748500685424</v>
+        <v>-0.0264795712067023</v>
       </c>
       <c r="M9">
-        <v>0.815242414438252</v>
+        <v>0.0883859064521985</v>
       </c>
       <c r="N9">
-        <v>-1.1961832613638</v>
+        <v>9.018370067982421</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1795129.32506</v>
@@ -1145,19 +1151,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,40 +1180,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.219867794473866</v>
+        <v>0.599995132836703</v>
       </c>
       <c r="G10">
-        <v>0.24</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="H10">
-        <v>0.4</v>
+        <v>0.792452830188679</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-0.23923665227276</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-3.46748500685424</v>
       </c>
       <c r="M10">
-        <v>1.22237708098733</v>
+        <v>0.815242414438252</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>-1.1961832613638</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>1795129.32506</v>
@@ -1216,19 +1222,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1236,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1245,40 +1251,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.601340223738668</v>
+        <v>0.219867794473866</v>
       </c>
       <c r="G11">
-        <v>0.415094339622642</v>
+        <v>0.24</v>
       </c>
       <c r="H11">
-        <v>0.547169811320755</v>
+        <v>0.4</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.016</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0009267554334392</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.22237708098733</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1795129.32506</v>
@@ -1287,19 +1293,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1307,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1316,37 +1322,37 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>0.78530090292357</v>
+        <v>0.601340223738668</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.415094339622642</v>
       </c>
       <c r="H12">
-        <v>0.886792452830189</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1.8</v>
+        <v>0.016</v>
       </c>
       <c r="K12">
-        <v>-0.0330892156326492</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0924772442184925</v>
+        <v>-0.0009267554334392</v>
       </c>
       <c r="M12">
-        <v>0.0311521208591165</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-1.8382897573694</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
         <v>37</v>
@@ -1358,19 +1364,19 @@
         <v>5557785.22125</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1387,40 +1393,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>0.0519496411572952</v>
+        <v>0.78530090292357</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.981132075471698</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.282</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>0.0114677103673078</v>
+        <v>-0.0330892156326492</v>
       </c>
       <c r="L13">
-        <v>-0.0009993914156746001</v>
+        <v>-0.0924772442184925</v>
       </c>
       <c r="M13">
-        <v>0.0297261243746047</v>
+        <v>0.0311521208591165</v>
       </c>
       <c r="N13">
-        <v>4.06656396003822</v>
+        <v>-1.8382897573694</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>1795129.32506</v>
@@ -1429,19 +1435,90 @@
         <v>5557785.22125</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>0.0519496411572952</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.981132075471698</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.282</v>
+      </c>
+      <c r="K14">
+        <v>0.0114677103673078</v>
+      </c>
+      <c r="L14">
+        <v>-0.0009993914156746001</v>
+      </c>
+      <c r="M14">
+        <v>0.0297261243746047</v>
+      </c>
+      <c r="N14">
+        <v>4.06656396003822</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>1795129.32506</v>
+      </c>
+      <c r="R14">
+        <v>5557785.22125</v>
+      </c>
+      <c r="S14" t="s">
         <v>42</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T14" t="s">
         <v>43</v>
       </c>
-      <c r="V13" t="s">
+      <c r="U14" t="s">
         <v>44</v>
       </c>
-      <c r="W13" t="s">
-        <v>48</v>
+      <c r="V14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
